--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/VERMONT_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/VERMONT_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -703,41 +703,6 @@
       </c>
       <c r="D23">
         <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/VERMONT_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/VERMONT_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -535,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -636,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -680,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
